--- a/SPPSApi/Doc/Template/FS0607_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0607_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>供应商代码</t>
   </si>
@@ -29,13 +29,16 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>格式=文本</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -50,13 +53,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,11 +91,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -381,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -413,6 +434,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0607_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0607_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>供应商代码</t>
   </si>
@@ -30,15 +30,12 @@
   <si>
     <t>备注</t>
   </si>
-  <si>
-    <t>格式=文本</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -53,28 +50,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,14 +73,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -434,23 +413,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0607_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0607_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>供应商代码</t>
   </si>
@@ -30,15 +30,12 @@
   <si>
     <t>备注</t>
   </si>
-  <si>
-    <t>格式=文本</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -53,28 +50,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,14 +73,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,18 +381,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="13.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.08984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -434,23 +412,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
